--- a/Maintenace_Nov_2019.xlsx
+++ b/Maintenace_Nov_2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9552" activeTab="2"/>
+    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9552" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_Report" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="121">
   <si>
     <t>Flats</t>
   </si>
@@ -338,9 +338,6 @@
     <t>31-Sep-2019 Reading</t>
   </si>
   <si>
-    <t>13_Oct_Reading</t>
-  </si>
-  <si>
     <t>G7 rented and not in use.</t>
   </si>
   <si>
@@ -372,6 +369,24 @@
   </si>
   <si>
     <t>EB_Fuse</t>
+  </si>
+  <si>
+    <t>31_Oct_Reading</t>
+  </si>
+  <si>
+    <t>Vacant Flat</t>
+  </si>
+  <si>
+    <t>Meter not working. Last month usuage calculated</t>
+  </si>
+  <si>
+    <t>previous balance due 3300(last 3 month due)</t>
+  </si>
+  <si>
+    <t>Lorry water total expense</t>
+  </si>
+  <si>
+    <t>Total Balance</t>
   </si>
 </sst>
 </file>
@@ -867,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J33"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1430,7 +1445,7 @@
         <v>90</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I54" s="18"/>
       <c r="J54" s="25"/>
@@ -1518,10 +1533,10 @@
         <v>50</v>
       </c>
       <c r="B62" s="17">
-        <v>43677</v>
+        <v>43738</v>
       </c>
       <c r="C62" s="17">
-        <v>43708</v>
+        <v>43769</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>48</v>
@@ -1535,14 +1550,14 @@
         <v>40</v>
       </c>
       <c r="B63" s="7">
-        <v>4284</v>
+        <v>4373</v>
       </c>
       <c r="C63" s="7">
-        <v>4373</v>
+        <v>4484</v>
       </c>
       <c r="D63" s="7">
         <f>C63-B63</f>
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="E63" s="7">
         <v>250</v>
@@ -1553,14 +1568,14 @@
         <v>41</v>
       </c>
       <c r="B64" s="7">
-        <v>57720</v>
+        <v>59272</v>
       </c>
       <c r="C64" s="7">
-        <v>59272</v>
+        <v>61095</v>
       </c>
       <c r="D64" s="7">
         <f t="shared" ref="D64" si="0">C64-B64</f>
-        <v>1552</v>
+        <v>1823</v>
       </c>
       <c r="E64" s="7">
         <v>11000</v>
@@ -1579,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1757,10 +1772,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:F33"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2006,7 +2021,7 @@
         <v>43758</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2023,7 +2038,7 @@
         <v>43760</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" s="7">
         <v>3700</v>
@@ -2043,13 +2058,13 @@
         <v>43762</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="7">
         <v>520</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2057,13 +2072,13 @@
         <v>43763</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="7">
         <v>250</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2071,7 +2086,7 @@
         <v>43764</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C30" s="7">
         <v>9000</v>
@@ -2094,7 +2109,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>43767</v>
       </c>
@@ -2102,118 +2117,148 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>43768</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" s="7">
         <v>1000</v>
       </c>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>43769</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" s="7">
         <v>50</v>
       </c>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="15"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2"/>
+      <c r="B36" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="7">
+        <v>2800</v>
+      </c>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" s="15"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7">
-        <f>SUM(C1:C36)</f>
-        <v>41390</v>
-      </c>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="16" t="s">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7">
+        <f>SUM(C1:C37)</f>
+        <v>44190</v>
+      </c>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="17">
-        <v>43646</v>
-      </c>
-      <c r="C39" s="17">
-        <v>43677</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="14" t="s">
+      <c r="B40" s="17">
+        <v>43738</v>
+      </c>
+      <c r="C40" s="17">
+        <v>43769</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="B41" s="7">
+        <v>35870</v>
+      </c>
+      <c r="C41" s="7">
+        <v>42090</v>
+      </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="7">
+        <v>1040</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1040</v>
+      </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="7">
+        <f>SUM(B41:B43)</f>
+        <v>36910</v>
+      </c>
+      <c r="C44" s="7">
+        <f>SUM(C41:C43)</f>
+        <v>43130</v>
+      </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="E47" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2225,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2241,7 +2286,7 @@
     <col min="9" max="9" width="108" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" customHeight="1">
+    <row r="1" spans="1:9" ht="23.4" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2249,7 +2294,7 @@
         <v>103</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>44</v>
@@ -2271,10 +2316,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="4">
-        <v>21870</v>
+        <v>22530</v>
       </c>
       <c r="C2" s="4">
-        <v>21870</v>
+        <v>22530</v>
       </c>
       <c r="D2" s="9">
         <f t="shared" ref="D2:D12" si="0">C2-B2</f>
@@ -2288,14 +2333,14 @@
         <v>1100</v>
       </c>
       <c r="G2" s="9">
-        <f>SUM(E2+F2)+2230</f>
-        <v>3330</v>
+        <f>SUM(E2+F2)+3300</f>
+        <v>4400</v>
       </c>
       <c r="H2" s="9">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="34" customFormat="1">
@@ -2324,11 +2369,9 @@
         <v>1226</v>
       </c>
       <c r="H3" s="9">
-        <v>1340</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>75</v>
-      </c>
+        <v>1230</v>
+      </c>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" s="34" customFormat="1">
       <c r="A4" s="9" t="s">
@@ -2338,25 +2381,25 @@
         <v>72740</v>
       </c>
       <c r="C4" s="4">
-        <v>80810</v>
+        <v>86900</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" si="0"/>
-        <v>8070</v>
+        <v>14160</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="1"/>
-        <v>322.8</v>
+        <v>566.4</v>
       </c>
       <c r="F4" s="9">
         <v>1100</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" ref="G4:G17" si="2">SUM(E4+F4)</f>
-        <v>1422.8</v>
+        <v>1666.4</v>
       </c>
       <c r="H4" s="9">
-        <v>1570</v>
+        <v>1670</v>
       </c>
       <c r="I4" s="12"/>
     </row>
@@ -2365,10 +2408,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="9">
-        <v>79380</v>
+        <v>79480</v>
       </c>
       <c r="C5" s="9">
-        <v>79380</v>
+        <v>79480</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -2389,7 +2432,7 @@
         <v>1100</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="34" customFormat="1">
@@ -2400,25 +2443,25 @@
         <v>16790</v>
       </c>
       <c r="C6" s="4">
-        <v>25090</v>
+        <v>32930</v>
       </c>
       <c r="D6" s="8">
         <f>(C6-B6)</f>
-        <v>8300</v>
+        <v>16140</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="1"/>
-        <v>332</v>
+        <v>645.6</v>
       </c>
       <c r="F6" s="8">
         <v>1100</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(E6+F6)</f>
-        <v>1432</v>
+        <v>1745.6</v>
       </c>
       <c r="H6" s="8">
-        <v>1510</v>
+        <v>1750</v>
       </c>
       <c r="I6" s="13"/>
     </row>
@@ -2427,31 +2470,31 @@
         <v>12</v>
       </c>
       <c r="B7" s="4">
-        <v>123410</v>
+        <v>12569</v>
       </c>
       <c r="C7" s="4">
-        <v>124830</v>
+        <v>12569</v>
       </c>
       <c r="D7" s="9">
         <f>(C7-B7)</f>
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
-        <v>56.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="F7" s="9">
         <v>1100</v>
       </c>
       <c r="G7" s="9">
-        <f>SUM(E7+F7)-70.8</f>
-        <v>1086</v>
+        <f>SUM(E7+F7)</f>
+        <v>1100</v>
       </c>
       <c r="H7" s="9">
-        <v>1070</v>
+        <v>1100</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="34" customFormat="1">
@@ -2462,25 +2505,25 @@
         <v>22379</v>
       </c>
       <c r="C8" s="35">
-        <v>40028</v>
+        <v>54092</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
-        <v>17649</v>
+        <v>31713</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="1"/>
-        <v>705.96</v>
+        <v>1268.52</v>
       </c>
       <c r="F8" s="9">
         <v>1100</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" si="2"/>
-        <v>1805.96</v>
+        <v>2368.52</v>
       </c>
       <c r="H8" s="9">
-        <v>2000</v>
+        <v>2370</v>
       </c>
       <c r="I8" s="12"/>
     </row>
@@ -2492,25 +2535,25 @@
         <v>89270</v>
       </c>
       <c r="C9" s="4">
-        <v>100720</v>
+        <v>109430</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
-        <v>11450</v>
+        <v>20160</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="1"/>
-        <v>458</v>
+        <v>806.4</v>
       </c>
       <c r="F9" s="9">
         <v>1100</v>
       </c>
       <c r="G9" s="9">
         <f t="shared" si="2"/>
-        <v>1558</v>
+        <v>1906.4</v>
       </c>
       <c r="H9" s="9">
-        <v>1770</v>
+        <v>1910</v>
       </c>
       <c r="I9" s="12"/>
     </row>
@@ -2522,25 +2565,25 @@
         <v>296910</v>
       </c>
       <c r="C10" s="42">
-        <v>306420</v>
+        <v>315630</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
-        <v>9510</v>
+        <v>18720</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="1"/>
-        <v>380.40000000000003</v>
+        <v>748.80000000000007</v>
       </c>
       <c r="F10" s="9">
         <v>1100</v>
       </c>
       <c r="G10" s="9">
         <f t="shared" si="2"/>
-        <v>1480.4</v>
+        <v>1848.8000000000002</v>
       </c>
       <c r="H10" s="9">
-        <v>1600</v>
+        <v>1850</v>
       </c>
       <c r="I10" s="12"/>
     </row>
@@ -2552,25 +2595,25 @@
         <v>267000</v>
       </c>
       <c r="C11" s="42">
-        <v>271470</v>
+        <v>275970</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>4470</v>
+        <v>8970</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="1"/>
-        <v>178.8</v>
+        <v>358.8</v>
       </c>
       <c r="F11" s="9">
         <v>1100</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="2"/>
-        <v>1278.8</v>
+        <v>1458.8</v>
       </c>
       <c r="H11" s="9">
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="I11" s="12"/>
     </row>
@@ -2582,25 +2625,25 @@
         <v>56770</v>
       </c>
       <c r="C12" s="4">
-        <v>64370</v>
+        <v>70380</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
-        <v>7600</v>
+        <v>13610</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="1"/>
-        <v>304</v>
+        <v>544.4</v>
       </c>
       <c r="F12" s="9">
         <v>1100</v>
       </c>
       <c r="G12" s="9">
         <f t="shared" si="2"/>
-        <v>1404</v>
+        <v>1644.4</v>
       </c>
       <c r="H12" s="9">
-        <v>1630</v>
+        <v>1650</v>
       </c>
       <c r="I12" s="12"/>
     </row>
@@ -2612,25 +2655,25 @@
         <v>38410</v>
       </c>
       <c r="C13" s="4">
-        <v>44971</v>
+        <v>49762</v>
       </c>
       <c r="D13" s="9">
         <f>(C13-B13)</f>
-        <v>6561</v>
+        <v>11352</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="1"/>
-        <v>262.44</v>
+        <v>454.08</v>
       </c>
       <c r="F13" s="9">
         <v>1100</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" si="2"/>
-        <v>1362.44</v>
+        <v>1554.08</v>
       </c>
       <c r="H13" s="9">
-        <v>1570</v>
+        <v>1560</v>
       </c>
       <c r="I13" s="12"/>
     </row>
@@ -2660,7 +2703,7 @@
         <v>1336.8</v>
       </c>
       <c r="H14" s="9">
-        <v>1590</v>
+        <v>1340</v>
       </c>
       <c r="I14" s="12"/>
     </row>
@@ -2703,29 +2746,27 @@
         <v>102620</v>
       </c>
       <c r="C16" s="4">
-        <v>108400</v>
+        <v>115460</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" ref="D16:D22" si="3">C16-B16</f>
-        <v>5780</v>
+        <v>12840</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="1"/>
-        <v>231.20000000000002</v>
+        <v>513.6</v>
       </c>
       <c r="F16" s="9">
         <v>1100</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="2"/>
-        <v>1331.2</v>
+        <v>1613.6</v>
       </c>
       <c r="H16" s="9">
-        <v>1340</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>77</v>
-      </c>
+        <v>1620</v>
+      </c>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" s="34" customFormat="1">
       <c r="A17" s="9" t="s">
@@ -2735,25 +2776,25 @@
         <v>70360</v>
       </c>
       <c r="C17" s="4">
-        <v>76570</v>
+        <v>81440</v>
       </c>
       <c r="D17" s="9">
         <f t="shared" si="3"/>
-        <v>6210</v>
+        <v>11080</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="1"/>
-        <v>248.4</v>
+        <v>443.2</v>
       </c>
       <c r="F17" s="9">
         <v>1100</v>
       </c>
       <c r="G17" s="9">
         <f t="shared" si="2"/>
-        <v>1348.4</v>
+        <v>1543.2</v>
       </c>
       <c r="H17" s="9">
-        <v>1440</v>
+        <v>1550</v>
       </c>
       <c r="I17" s="12"/>
     </row>
@@ -2779,14 +2820,14 @@
         <v>1100</v>
       </c>
       <c r="G18" s="9">
-        <f>SUM(E18+F18)+7780</f>
-        <v>8880</v>
+        <f>SUM(E18+F18)+0</f>
+        <v>1100</v>
       </c>
       <c r="H18" s="9">
-        <v>8860</v>
+        <v>1100</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="34" customFormat="1">
@@ -2797,25 +2838,25 @@
         <v>49870</v>
       </c>
       <c r="C19" s="4">
-        <v>57370</v>
+        <v>63930</v>
       </c>
       <c r="D19" s="9">
         <f t="shared" si="3"/>
-        <v>7500</v>
+        <v>14060</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>562.4</v>
       </c>
       <c r="F19" s="9">
         <v>1100</v>
       </c>
       <c r="G19" s="9">
         <f>SUM(E19+F19)</f>
-        <v>1400</v>
+        <v>1662.4</v>
       </c>
       <c r="H19" s="9">
-        <v>1570</v>
+        <v>1660</v>
       </c>
       <c r="I19" s="12"/>
     </row>
@@ -2827,29 +2868,29 @@
         <v>51483</v>
       </c>
       <c r="C20" s="4">
-        <v>56794</v>
+        <v>62438</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" si="3"/>
-        <v>5311</v>
+        <v>10955</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="1"/>
-        <v>212.44</v>
+        <v>438.2</v>
       </c>
       <c r="F20" s="9">
         <v>1100</v>
       </c>
       <c r="G20" s="9">
         <f t="shared" ref="G20:G33" si="4">SUM(E20+F20)</f>
-        <v>1312.44</v>
+        <v>1538.2</v>
       </c>
       <c r="H20" s="9">
-        <v>1390</v>
+        <v>1540</v>
       </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" s="34" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:9" s="34" customFormat="1" ht="15.6" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>23</v>
       </c>
@@ -2857,25 +2898,25 @@
         <v>17850</v>
       </c>
       <c r="C21" s="35">
-        <v>27070</v>
+        <v>36770</v>
       </c>
       <c r="D21" s="26">
         <f t="shared" si="3"/>
-        <v>9220</v>
+        <v>18920</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="1"/>
-        <v>368.8</v>
+        <v>756.80000000000007</v>
       </c>
       <c r="F21" s="9">
         <v>1100</v>
       </c>
       <c r="G21" s="9">
         <f t="shared" si="4"/>
-        <v>1468.8</v>
+        <v>1856.8000000000002</v>
       </c>
       <c r="H21" s="9">
-        <v>1390</v>
+        <v>1860</v>
       </c>
       <c r="I21" s="12"/>
     </row>
@@ -2887,29 +2928,27 @@
         <v>25010</v>
       </c>
       <c r="C22" s="35">
-        <v>38932</v>
+        <v>50446</v>
       </c>
       <c r="D22" s="26">
         <f t="shared" si="3"/>
-        <v>13922</v>
+        <v>25436</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="1"/>
-        <v>556.88</v>
+        <v>1017.44</v>
       </c>
       <c r="F22" s="8">
         <v>1100</v>
       </c>
       <c r="G22" s="9">
         <f t="shared" si="4"/>
-        <v>1656.88</v>
+        <v>2117.44</v>
       </c>
       <c r="H22" s="8">
-        <v>2100</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>76</v>
-      </c>
+        <v>2120</v>
+      </c>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" s="34" customFormat="1">
       <c r="A23" s="9" t="s">
@@ -2919,25 +2958,25 @@
         <v>77420</v>
       </c>
       <c r="C23" s="4">
-        <v>84320</v>
+        <v>90730</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" ref="D23:D34" si="5">C23-B23</f>
-        <v>6900</v>
+        <v>13310</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="1"/>
-        <v>276</v>
+        <v>532.4</v>
       </c>
       <c r="F23" s="9">
         <v>1100</v>
       </c>
       <c r="G23" s="9">
         <f t="shared" si="4"/>
-        <v>1376</v>
+        <v>1632.4</v>
       </c>
       <c r="H23" s="9">
-        <v>1490</v>
+        <v>1630</v>
       </c>
       <c r="I23" s="9"/>
     </row>
@@ -2949,25 +2988,25 @@
         <v>156100</v>
       </c>
       <c r="C24" s="4">
-        <v>165710</v>
+        <v>172270</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" si="5"/>
-        <v>9610</v>
+        <v>16170</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="1"/>
-        <v>384.40000000000003</v>
+        <v>646.80000000000007</v>
       </c>
       <c r="F24" s="9">
         <v>1100</v>
       </c>
       <c r="G24" s="9">
         <f t="shared" si="4"/>
-        <v>1484.4</v>
+        <v>1746.8000000000002</v>
       </c>
       <c r="H24" s="9">
-        <v>1630</v>
+        <v>1750</v>
       </c>
       <c r="I24" s="9"/>
     </row>
@@ -2979,25 +3018,25 @@
         <v>98810</v>
       </c>
       <c r="C25" s="4">
-        <v>107960</v>
+        <v>115120</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" si="5"/>
-        <v>9150</v>
+        <v>16310</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" si="1"/>
-        <v>366</v>
+        <v>652.4</v>
       </c>
       <c r="F25" s="9">
         <v>1100</v>
       </c>
       <c r="G25" s="9">
         <f t="shared" si="4"/>
-        <v>1466</v>
+        <v>1752.4</v>
       </c>
       <c r="H25" s="9">
-        <v>1570</v>
+        <v>1750</v>
       </c>
       <c r="I25" s="9"/>
     </row>
@@ -3009,25 +3048,25 @@
         <v>82730</v>
       </c>
       <c r="C26" s="4">
-        <v>86150</v>
+        <v>89710</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" si="5"/>
-        <v>3420</v>
+        <v>6980</v>
       </c>
       <c r="E26" s="9">
         <f t="shared" si="1"/>
-        <v>136.80000000000001</v>
+        <v>279.2</v>
       </c>
       <c r="F26" s="9">
         <v>1100</v>
       </c>
       <c r="G26" s="9">
         <f t="shared" si="4"/>
-        <v>1236.8</v>
+        <v>1379.2</v>
       </c>
       <c r="H26" s="9">
-        <v>1440</v>
+        <v>1380</v>
       </c>
       <c r="I26" s="9"/>
     </row>
@@ -3039,25 +3078,25 @@
         <v>55563</v>
       </c>
       <c r="C27" s="4">
-        <v>67621</v>
+        <v>77783</v>
       </c>
       <c r="D27" s="9">
         <f t="shared" si="5"/>
-        <v>12058</v>
+        <v>22220</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" si="1"/>
-        <v>482.32</v>
+        <v>888.80000000000007</v>
       </c>
       <c r="F27" s="9">
         <v>1100</v>
       </c>
       <c r="G27" s="9">
         <f t="shared" si="4"/>
-        <v>1582.32</v>
+        <v>1988.8000000000002</v>
       </c>
       <c r="H27" s="9">
-        <v>1860</v>
+        <v>1990</v>
       </c>
       <c r="I27" s="9"/>
     </row>
@@ -3072,24 +3111,25 @@
         <v>252360</v>
       </c>
       <c r="D28" s="39">
-        <f t="shared" si="5"/>
-        <v>30</v>
+        <v>12830</v>
       </c>
       <c r="E28" s="39">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>513.20000000000005</v>
       </c>
       <c r="F28" s="39">
         <v>1100</v>
       </c>
       <c r="G28" s="39">
         <f t="shared" si="4"/>
-        <v>1101.2</v>
+        <v>1613.2</v>
       </c>
       <c r="H28" s="39">
-        <v>1620</v>
-      </c>
-      <c r="I28" s="39"/>
+        <v>1610</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="29" spans="1:9" s="34" customFormat="1">
       <c r="A29" s="9" t="s">
@@ -3099,25 +3139,25 @@
         <v>26770</v>
       </c>
       <c r="C29" s="4">
-        <v>32211</v>
+        <v>35227</v>
       </c>
       <c r="D29" s="9">
         <f t="shared" si="5"/>
-        <v>5441</v>
+        <v>8457</v>
       </c>
       <c r="E29" s="9">
         <f t="shared" si="1"/>
-        <v>217.64000000000001</v>
+        <v>338.28000000000003</v>
       </c>
       <c r="F29" s="9">
         <v>1100</v>
       </c>
       <c r="G29" s="9">
         <f t="shared" si="4"/>
-        <v>1317.64</v>
+        <v>1438.28</v>
       </c>
       <c r="H29" s="9">
-        <v>1400</v>
+        <v>1440</v>
       </c>
       <c r="I29" s="9"/>
     </row>
@@ -3129,11 +3169,11 @@
         <v>4140</v>
       </c>
       <c r="C30" s="36">
-        <v>8070</v>
+        <v>19140</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" si="5"/>
-        <v>3930</v>
+        <v>15000</v>
       </c>
       <c r="E30" s="9">
         <f>(0.04*9553)</f>
@@ -3149,23 +3189,21 @@
       <c r="H30" s="9">
         <v>1490</v>
       </c>
-      <c r="I30" s="26" t="s">
-        <v>80</v>
-      </c>
+      <c r="I30" s="26"/>
     </row>
     <row r="31" spans="1:9" s="34" customFormat="1">
       <c r="A31" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="37">
-        <v>385940</v>
+        <v>0</v>
       </c>
       <c r="C31" s="37">
-        <v>6920</v>
+        <v>18750</v>
       </c>
       <c r="D31" s="36">
         <f>C31-0</f>
-        <v>6920</v>
+        <v>18750</v>
       </c>
       <c r="E31" s="9">
         <f>(0.04*13600)</f>
@@ -3181,7 +3219,7 @@
       <c r="H31" s="9">
         <v>1650</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="9" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3193,25 +3231,25 @@
         <v>42630</v>
       </c>
       <c r="C32" s="4">
-        <v>44460</v>
+        <v>45980</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" si="5"/>
-        <v>1830</v>
+        <v>3350</v>
       </c>
       <c r="E32" s="9">
         <f t="shared" si="1"/>
-        <v>73.2</v>
+        <v>134</v>
       </c>
       <c r="F32" s="9">
         <v>1100</v>
       </c>
       <c r="G32" s="9">
         <f t="shared" si="4"/>
-        <v>1173.2</v>
+        <v>1234</v>
       </c>
       <c r="H32" s="9">
-        <v>1290</v>
+        <v>1240</v>
       </c>
       <c r="I32" s="9"/>
     </row>
@@ -3223,25 +3261,25 @@
         <v>254810</v>
       </c>
       <c r="C33" s="4">
-        <v>267050</v>
+        <v>277410</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" si="5"/>
-        <v>12240</v>
+        <v>22600</v>
       </c>
       <c r="E33" s="9">
         <f t="shared" si="1"/>
-        <v>489.6</v>
+        <v>904</v>
       </c>
       <c r="F33" s="9">
         <v>1100</v>
       </c>
       <c r="G33" s="9">
         <f t="shared" si="4"/>
-        <v>1589.6</v>
+        <v>2004</v>
       </c>
       <c r="H33" s="9">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I33" s="9"/>
     </row>
@@ -3252,14 +3290,16 @@
       <c r="B34" s="9">
         <v>37070</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="9">
+        <v>38880</v>
+      </c>
       <c r="D34" s="9">
         <f t="shared" si="5"/>
-        <v>-37070</v>
+        <v>1810</v>
       </c>
       <c r="E34" s="9">
         <f t="shared" si="1"/>
-        <v>-1482.8</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="F34" s="9">
         <v>0</v>
@@ -3285,25 +3325,25 @@
       </c>
       <c r="B36" s="7">
         <f>SUM(B1:B35)</f>
-        <v>3144165</v>
+        <v>2648144</v>
       </c>
       <c r="C36" s="7">
         <f>SUM(C1:C35)</f>
-        <v>2924727</v>
+        <v>3030317</v>
       </c>
       <c r="D36" s="7">
         <f>SUM(D1:D35)</f>
-        <v>169502</v>
+        <v>397973</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7">
         <f>SUM(G1:G35)</f>
-        <v>53894.200000000004</v>
+        <v>53922.640000000007</v>
       </c>
       <c r="H36" s="7">
         <f>SUM(H2:H34)</f>
-        <v>57100</v>
+        <v>53990</v>
       </c>
       <c r="I36" s="7"/>
     </row>
